--- a/expression analysis/JNPL3_DE_v2.xlsx
+++ b/expression analysis/JNPL3_DE_v2.xlsx
@@ -21,10 +21,68 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Ben Heavner</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ben Heavner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+positive means higher expression in TG mice</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ben Heavner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+statistics for counts across all samples (not separated for TG and WT)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="JNPL3_tg_vs_wt.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:bheavner:Projects:UO1-AMP:working:expression analysis:JNPL3_tg_vs_wt.txt" space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:bheavner:Projects:UO1-AMP:working:expression analysis:JNPL3_tg_vs_wt.txt" space="1" consecutive="1">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -670,13 +728,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1036,10 +1107,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4251,6 +4324,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
